--- a/document-checker/Отчет_проверки_документов.xlsx
+++ b/document-checker/Отчет_проверки_документов.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,11 @@
     <col width="21.6" customWidth="1" min="1" max="1"/>
     <col width="31.2" customWidth="1" min="2" max="2"/>
     <col width="25.2" customWidth="1" min="3" max="3"/>
-    <col width="37.2" customWidth="1" min="4" max="4"/>
+    <col width="51.6" customWidth="1" min="4" max="4"/>
     <col width="13.2" customWidth="1" min="5" max="5"/>
     <col width="142.8" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="70.8" customWidth="1" min="8" max="8"/>
+    <col width="87.59999999999999" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -848,6 +848,1906 @@
       <c r="H10" t="inlineStr">
         <is>
           <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые ячейки, цветной лист (Лист3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:21:50</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки, цветной лист (Лист3), комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2024, желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:40</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023, желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки, цветной лист (Лист3), комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:51:58</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023, желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, найдены заданные значения: 2023, комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023, комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, найдены заданные значения: 2023, комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки, цветной лист (Лист3), комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, найдены заданные значения: 2023, комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023, желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:53:20</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023, желтые ячейки</t>
         </is>
       </c>
     </row>
@@ -862,6 +2762,56 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" r:id="rId7"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" r:id="rId8"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F57" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F58" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F59" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F60" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/document-checker/Отчет_проверки_документов.xlsx
+++ b/document-checker/Отчет_проверки_документов.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2748,6 +2748,880 @@
       <c r="H60" t="inlineStr">
         <is>
           <t>Найдено: найдены заданные значения: 2023, желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, комментарии, найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G67" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, комментарии, найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G69" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G71" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, комментарии, найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G73" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Найдено: найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G75" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист3), комментарии, желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G79" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G80" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G81" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G82" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки, найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:19:08</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки, найдены заданные значения: 2023</t>
         </is>
       </c>
     </row>
@@ -2812,6 +3686,29 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F58" r:id="rId57"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F59" r:id="rId58"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F60" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F61" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F62" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F63" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F64" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F66" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F67" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F68" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F69" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F70" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F71" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F72" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F73" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F74" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F75" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F76" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F77" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F78" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F79" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F80" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F81" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F82" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F83" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/document-checker/Отчет_проверки_документов.xlsx
+++ b/document-checker/Отчет_проверки_документов.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3622,6 +3622,2628 @@
       <c r="H83" t="inlineStr">
         <is>
           <t>Найдено: желтые ячейки, найдены заданные значения: 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G86" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G89" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G90" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G93" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G98" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки, цветной лист (Лист3), комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G101" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G104" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G105" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:26:11</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G106" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G107" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G108" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G109" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G110" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G111" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G112" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G113" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G114" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G117" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G118" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G119" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, цветной лист (Лист3), желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G120" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G121" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G123" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G124" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>8</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G125" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G126" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>8</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:31:53</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G130" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G131" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G132" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G133" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G134" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G135" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G136" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>8</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G137" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G138" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G139" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G140" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G141" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G142" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, цветной лист (Лист3), желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G143" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G144" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G145" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G146" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G147" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G148" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G149" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G150" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G151" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>25.04.2025 16:32:18</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G152" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
         </is>
       </c>
     </row>
@@ -3709,6 +6331,75 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F81" r:id="rId80"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F82" r:id="rId81"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F83" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F84" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F85" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F86" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F87" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F88" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F89" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F90" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F101" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F102" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F103" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F104" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F105" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F106" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F107" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F108" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F110" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F111" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F112" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F113" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F114" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F115" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F116" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F117" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F118" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F119" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F121" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F122" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F123" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F124" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F125" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F126" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F127" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F128" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F129" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F130" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F131" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F132" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F133" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F134" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F135" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F136" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F137" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F138" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F139" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F140" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F141" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F142" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F143" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F144" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F145" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F146" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F147" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F148" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F149" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F150" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F151" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F152" r:id="rId151"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/document-checker/Отчет_проверки_документов.xlsx
+++ b/document-checker/Отчет_проверки_документов.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6242,6 +6242,1754 @@
         </is>
       </c>
       <c r="H152" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G153" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G154" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G155" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G156" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G157" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G158" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G159" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G160" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G161" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G162" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G163" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые ячейки, цветной лист (Лист3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G164" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G165" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G166" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G167" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G168" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G169" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G170" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G171" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G172" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G173" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G174" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G175" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>10</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G176" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>10</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G177" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>10</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G178" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>10</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G179" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>10</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G180" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>10</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G181" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>10</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G182" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>10</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G183" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>10</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G184" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>10</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G185" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>10</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G186" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>10</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G187" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>10</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G188" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>10</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G189" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>10</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G190" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения, комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>10</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G191" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист3), желтые ячейки, комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>10</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G192" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>10</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G193" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>10</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G194" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>10</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G195" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>10</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G196" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>10</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G197" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>10</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:24:30</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G198" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>Найдено: желтые ячейки</t>
         </is>
@@ -6400,6 +8148,52 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F150" r:id="rId149"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F151" r:id="rId150"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F152" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F153" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F154" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F155" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F156" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F157" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F158" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F159" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F160" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F161" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F162" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F163" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F164" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F165" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F166" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F167" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F168" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F169" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F170" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F171" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F172" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F173" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F174" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F175" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F176" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F177" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F178" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F179" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F180" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F181" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F182" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F183" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F184" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F185" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F186" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F187" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F188" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F189" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F190" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F191" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F192" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F193" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F194" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F195" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F196" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F197" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F198" r:id="rId197"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/document-checker/Отчет_проверки_документов.xlsx
+++ b/document-checker/Отчет_проверки_документов.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7990,6 +7990,880 @@
         </is>
       </c>
       <c r="H198" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G199" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G200" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G201" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>11</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G202" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G203" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G204" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G205" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G206" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G207" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>11</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G208" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G209" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>11</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G210" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G211" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G212" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G213" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G214" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист3), комментарии, желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G215" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G216" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G217" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>11</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G218" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>11</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G219" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>11</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G220" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:40:35</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G221" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>Найдено: желтые ячейки</t>
         </is>
@@ -8194,6 +9068,29 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F196" r:id="rId195"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F197" r:id="rId196"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F198" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F199" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F200" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F201" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F202" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F203" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F204" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F205" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F206" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F207" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F208" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F209" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F210" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F211" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F212" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F213" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F214" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F215" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F216" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F217" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F218" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F219" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F220" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F221" r:id="rId220"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/document-checker/Отчет_проверки_документов.xlsx
+++ b/document-checker/Отчет_проверки_документов.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8864,6 +8864,880 @@
         </is>
       </c>
       <c r="H221" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>12</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G222" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>12</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G223" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>12</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G224" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>12</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G225" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>12</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G226" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>12</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G227" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>12</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G228" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>12</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G229" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>12</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G230" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>12</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G231" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>12</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G232" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>12</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G233" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>12</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G234" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>12</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G235" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>12</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G236" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые ячейки, цветной лист (Лист3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>12</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G237" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>12</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G238" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>12</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G239" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>12</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G240" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>12</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G241" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>12</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F242" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G242" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>12</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G243" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>25.04.2025 17:46:47</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F244" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G244" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
         <is>
           <t>Найдено: желтые ячейки</t>
         </is>
@@ -9091,6 +9965,29 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F219" r:id="rId218"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F220" r:id="rId219"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F221" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F222" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F223" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F224" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F225" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F226" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F227" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F228" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F229" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F230" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F231" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F232" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F233" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F234" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F235" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F236" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F237" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F238" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F239" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F240" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F241" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F242" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F243" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F244" r:id="rId243"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/document-checker/Отчет_проверки_документов.xlsx
+++ b/document-checker/Отчет_проверки_документов.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9738,6 +9738,1754 @@
         </is>
       </c>
       <c r="H244" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>13</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F245" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G245" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>13</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F246" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G246" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>13</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G247" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>13</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G248" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>13</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G249" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>13</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G250" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>13</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G251" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>13</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G252" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>13</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G253" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>13</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G254" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>13</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G255" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>13</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G256" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>13</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G257" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>13</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G258" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>13</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G259" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки, комментарии, цветной лист (Лист3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>13</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G260" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>13</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G261" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>13</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G262" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>13</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G263" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>13</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G264" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>13</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G265" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>13</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G266" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>13</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:22:36</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G267" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>14</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G268" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>14</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>123.xlsx</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\123.xlsx</t>
+        </is>
+      </c>
+      <c r="G269" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>14</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит желтое.docx</t>
+        </is>
+      </c>
+      <c r="G270" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Найдено: желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>14</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (2).docx</t>
+        </is>
+      </c>
+      <c r="G271" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>14</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F272" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G272" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>14</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F273" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G273" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>14</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Ворд 4\Содержит все.docm</t>
+        </is>
+      </c>
+      <c r="G274" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>14</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия.docx</t>
+        </is>
+      </c>
+      <c r="G275" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>14</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода.docx</t>
+        </is>
+      </c>
+      <c r="G276" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>14</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G277" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>14</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\Содержит комментарий.docx</t>
+        </is>
+      </c>
+      <c r="G278" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>14</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Все ок.docx</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Все ок.docx</t>
+        </is>
+      </c>
+      <c r="G279" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>14</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Индикаторы тест перевода — копия (3).docx</t>
+        </is>
+      </c>
+      <c r="G280" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>14</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест ворд\ворд 2\ворд 3\Содержит все.docx</t>
+        </is>
+      </c>
+      <c r="G281" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии, желтые выделения</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>14</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все вместе.xlsx</t>
+        </is>
+      </c>
+      <c r="G282" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки, комментарии, цветной лист (Лист3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>14</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Все ок.xlsm</t>
+        </is>
+      </c>
+      <c r="G283" s="3" t="inlineStr">
+        <is>
+          <t>Пройден</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Проблем не обнаружено</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>14</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F284" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое в листах.xlsx</t>
+        </is>
+      </c>
+      <c r="G284" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Найдено: цветной лист (Лист2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>14</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое.xlsx</t>
+        </is>
+      </c>
+      <c r="G285" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>14</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит желтое — копия.xlsm</t>
+        </is>
+      </c>
+      <c r="G286" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>14</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Содержит комментарий.xlsx</t>
+        </is>
+      </c>
+      <c r="G287" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Найдено: комментарии</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>14</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Желтое в 1м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G288" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>14</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F289" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Желтое в 2м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G289" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Найдено: желтые ячейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>14</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>26.04.2025 16:23:03</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="F290" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\kills\Downloads\Макросы\Тесты\Тесты отчета\Тест Эксель\Эксель 2\Эксель 3\Эксель 4\Желтое в 3м диапазоне.xlsx</t>
+        </is>
+      </c>
+      <c r="G290" s="4" t="inlineStr">
+        <is>
+          <t>Не пройден</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
         <is>
           <t>Найдено: желтые ячейки</t>
         </is>
@@ -9988,6 +11736,52 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F242" r:id="rId241"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F243" r:id="rId242"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F244" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F245" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F246" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F247" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F248" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F249" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F250" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F251" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F252" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F253" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F254" r:id="rId253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F255" r:id="rId254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F256" r:id="rId255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F257" r:id="rId256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F258" r:id="rId257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F259" r:id="rId258"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F260" r:id="rId259"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F261" r:id="rId260"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F262" r:id="rId261"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F263" r:id="rId262"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F264" r:id="rId263"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F265" r:id="rId264"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F266" r:id="rId265"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F267" r:id="rId266"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F268" r:id="rId267"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F269" r:id="rId268"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F270" r:id="rId269"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F271" r:id="rId270"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F272" r:id="rId271"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F273" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F274" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F275" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F276" r:id="rId275"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F277" r:id="rId276"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F278" r:id="rId277"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F279" r:id="rId278"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F280" r:id="rId279"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F281" r:id="rId280"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F282" r:id="rId281"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F283" r:id="rId282"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F284" r:id="rId283"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F285" r:id="rId284"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F286" r:id="rId285"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F287" r:id="rId286"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F288" r:id="rId287"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F289" r:id="rId288"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F290" r:id="rId289"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
